--- a/Overgangsrecht+TAM/testresultaat.xlsx
+++ b/Overgangsrecht+TAM/testresultaat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Github\Geonovum\imro-dev\Overgangsrecht+TAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gijsk\Documents\GitHub\imro-dev\Overgangsrecht+TAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C132B7C-F10E-4F7A-B203-F9EEA9837815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A97A7-AB45-4191-97F1-8BC8D53B43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{3B9409DF-38CF-4439-A4D2-12BFE7E549DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B9409DF-38CF-4439-A4D2-12BFE7E549DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -780,18 +780,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ADE8B-36DB-4649-863C-6CFFC8AF55CB}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
@@ -805,7 +805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -905,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -947,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -1052,7 +1052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -1418,13 +1418,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>49</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>50</v>
       </c>
@@ -1511,16 +1511,16 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>50</v>
       </c>
@@ -2230,18 +2230,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638CCAD2-575D-4D4B-A5AF-B42320002B6C}">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>

--- a/Overgangsrecht+TAM/testresultaat.xlsx
+++ b/Overgangsrecht+TAM/testresultaat.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gijsk\Documents\GitHub\imro-dev\Overgangsrecht+TAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Github\Geonovum\imro-dev\Overgangsrecht+TAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A97A7-AB45-4191-97F1-8BC8D53B43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF9A70-691E-46B1-8657-76BC8252C68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B9409DF-38CF-4439-A4D2-12BFE7E549DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B9409DF-38CF-4439-A4D2-12BFE7E549DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Hertest" sheetId="2" r:id="rId2"/>
-    <sheet name="Uitvoering" sheetId="3" r:id="rId3"/>
+    <sheet name="Hertest - XSLT1 - 20220523" sheetId="5" r:id="rId1"/>
+    <sheet name="Test - XSLT1 - 20220523" sheetId="4" r:id="rId2"/>
+    <sheet name="Test" sheetId="1" r:id="rId3"/>
+    <sheet name="Hertest" sheetId="2" r:id="rId4"/>
+    <sheet name="Uitvoering" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="112">
   <si>
     <t>IMRO-object met gml:id NL.IMRO.9926.PA1112OUWATERLG-VA01, type = imro:Besluitgebied_X: Fout in typePlan -&gt; Als imro:datum is groter dan of gelijk aan 2022-07-01, dan mag typePlan niet zijn 'aanwijzigingsbesluit' of 'beheersverordening' of 'exploitatieplan' of 'gerechtelijke uitspraak' of 'omgevingsvergunning' of 'reactieve aanwijzing' of 'voorbereidingsbesluit'.</t>
   </si>
@@ -367,6 +369,12 @@
   </si>
   <si>
     <t>regels\rules-2012v0.08\TAM.sch</t>
+  </si>
+  <si>
+    <t>Exploitatieplan</t>
+  </si>
+  <si>
+    <t>IMRO-object met gml:id NL.IMRO.9926.RA0318SLAPPEDEL8A-VA01, type = imro:Besluitgebied_X: Fout in typePlan -&gt; Als imro:datum is groter dan of gelijk aan 2022-07-01, dan mag typePlan niet zijn 'aanwijzigingsbesluit' of 'beheersverordening' of 'reactieve aanwijzing'.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -462,6 +470,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -777,21 +801,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ADE8B-36DB-4649-863C-6CFFC8AF55CB}">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5607DA0-2A37-4B8B-8185-E1008CFEF947}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="79.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
@@ -801,30 +827,502 @@
       <c r="D1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C8936-D7D1-4C1D-960D-9AD61970D693}">
+  <dimension ref="A1:FC48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="127.140625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+    </row>
+    <row r="3" spans="1:159" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+    </row>
+    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -834,22 +1332,22 @@
       <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:159" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -859,22 +1357,22 @@
       <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:159" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -887,11 +1385,11 @@
       <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -901,11 +1399,11 @@
       <c r="D9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:159" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -915,11 +1413,11 @@
       <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:159" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -929,11 +1427,11 @@
       <c r="D11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:159" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -943,11 +1441,11 @@
       <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -957,13 +1455,13 @@
       <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -974,11 +1472,11 @@
       <c r="D14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -988,39 +1486,40 @@
       <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="E15" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:159" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1033,26 +1532,25 @@
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:159" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1065,11 +1563,11 @@
       <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1079,11 +1577,11 @@
       <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:159" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1093,11 +1591,11 @@
       <c r="D22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1107,11 +1605,11 @@
       <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1124,42 +1622,197 @@
       <c r="D24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+      <c r="E24" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:159" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CS25"/>
+      <c r="CT25"/>
+      <c r="CU25"/>
+      <c r="CV25"/>
+      <c r="CW25"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DB25"/>
+      <c r="DC25"/>
+      <c r="DD25"/>
+      <c r="DE25"/>
+      <c r="DF25"/>
+      <c r="DG25"/>
+      <c r="DH25"/>
+      <c r="DI25"/>
+      <c r="DJ25"/>
+      <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
+      <c r="ED25"/>
+      <c r="EE25"/>
+      <c r="EF25"/>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25"/>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+    </row>
+    <row r="26" spans="1:159" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:159" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1169,11 +1822,11 @@
       <c r="D27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1186,11 +1839,11 @@
       <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:159" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1200,11 +1853,11 @@
       <c r="D29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1217,11 +1870,11 @@
       <c r="D30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:159" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1231,11 +1884,11 @@
       <c r="D31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1248,11 +1901,11 @@
       <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1262,11 +1915,11 @@
       <c r="D33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1279,11 +1932,11 @@
       <c r="D34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -1293,28 +1946,28 @@
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -1324,11 +1977,11 @@
       <c r="D37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1341,11 +1994,11 @@
       <c r="D38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -1355,11 +2008,11 @@
       <c r="D39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1369,11 +2022,11 @@
       <c r="D40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -1383,11 +2036,11 @@
       <c r="D41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1400,11 +2053,11 @@
       <c r="D42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -1414,86 +2067,80 @@
       <c r="D43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="E43" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
       <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
+      <c r="E45" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1503,7 +2150,734 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9ADE8B-36DB-4649-863C-6CFFC8AF55CB}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE690EE-4D0C-47F0-944C-A11E06EC50EE}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -1511,16 +2885,16 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
@@ -1535,7 +2909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1554,7 +2928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1579,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1604,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +3023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +3037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +3051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1708,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +3110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +3200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +3262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +3276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1919,7 +3293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +3307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +3324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1964,7 +3338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1981,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1995,7 +3369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2012,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +3400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2043,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +3431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2074,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +3476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -2147,7 +3521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -2161,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +3580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638CCAD2-575D-4D4B-A5AF-B42320002B6C}">
   <dimension ref="A2:C3"/>
   <sheetViews>
@@ -2234,14 +3608,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
